--- a/wwwroot/Template/Template.xlsx
+++ b/wwwroot/Template/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pater.abdelmassih\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebram.youssef\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9918A2FE-59A2-47EE-A50C-2152EC34E7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67D5665-0EB1-4453-B0C3-3D50F6801201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6ACE62D0-BBD8-4129-A4FB-71D0920332BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>المراحل</t>
   </si>
@@ -71,82 +71,34 @@
     <t>الصرف المخطط</t>
   </si>
   <si>
-    <t>الانتقال والدراسة (إن وُجد نظام سابق)</t>
-  </si>
-  <si>
-    <t>مخاطبة هيئة البيئة لنقل نظام الإفصاح إلى المركز</t>
-  </si>
-  <si>
-    <t>قسم إدارة المشاريع (PMO)</t>
-  </si>
-  <si>
-    <t>قسم تقنية المعلومات</t>
-  </si>
-  <si>
-    <t>Official Transfer Letter (Environment Authority → HMMC)</t>
-  </si>
-  <si>
-    <t>دراسة وتحليل النظام السابق IHMMS</t>
-  </si>
-  <si>
-    <t>فريق تحليل الأعمال</t>
-  </si>
-  <si>
-    <t>IHMMS Study &amp; Analysis Report</t>
-  </si>
-  <si>
-    <t>عرض نتائج الدراسة وتنظيم العمليات المقترحة</t>
-  </si>
-  <si>
-    <t>Operations Organization Presentation (BPMN &amp; Slides)</t>
-  </si>
-  <si>
-    <t>مراجعة نتائج الدراسة واعتماد الملاحظات</t>
-  </si>
-  <si>
-    <t>مالك النظام</t>
-  </si>
-  <si>
-    <t>Study Review Minutes</t>
-  </si>
-  <si>
-    <t>التخطيط</t>
-  </si>
-  <si>
-    <t>إعداد خطة ترحيل البيانات من النظام السابق</t>
-  </si>
-  <si>
-    <t>مدير المشروع</t>
-  </si>
-  <si>
-    <t>Data Migration Plan (Mapping, Cleansing, Validation)</t>
-  </si>
-  <si>
-    <t>تحديد نطاق العمل (Scope of Work) من مدير المشروع</t>
-  </si>
-  <si>
-    <t>Scope of Work Document (SOW)</t>
-  </si>
-  <si>
-    <t>المتطلبات</t>
-  </si>
-  <si>
-    <t>جمع المتطلبات (مقابلات/ورش/مصادر)</t>
-  </si>
-  <si>
-    <t>Requirements Elicitation Package</t>
-  </si>
-  <si>
-    <t>تحليل المتطلبات (تصنيف/أولوية/نمذجة)</t>
-  </si>
-  <si>
-    <t>Requirements Analysis Report</t>
-  </si>
-  <si>
-    <t>إعداد وثيقة المتطلبات RSD</t>
-  </si>
-  <si>
-    <t>Requirements Specification Document v1.0 (RSD v1.0)</t>
+    <t>سطر استرشادي</t>
+  </si>
+  <si>
+    <t>ادخل اسم المرحلة</t>
+  </si>
+  <si>
+    <t>ادخل اسم المهمة</t>
+  </si>
+  <si>
+    <t>ادخل القيم المنفذ</t>
+  </si>
+  <si>
+    <t>ادخل اسم الادارة المسئولة</t>
+  </si>
+  <si>
+    <t>ادخل اسم المخرجات (سطر واحد)</t>
+  </si>
+  <si>
+    <t>ادخل ارقام فقط</t>
+  </si>
+  <si>
+    <t>سنة/يوم/شهر</t>
+  </si>
+  <si>
+    <t>ادخل رقم % ( مثال50%)</t>
+  </si>
+  <si>
+    <t>ادخل رقم</t>
   </si>
 </sst>
 </file>
@@ -207,7 +159,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +184,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -316,7 +274,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -370,6 +328,22 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -709,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63D3052-7C50-4BFB-907A-2B7389BF03E1}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +694,7 @@
     <col min="1" max="16384" width="20.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,272 +729,147 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>45945</v>
-      </c>
-      <c r="H2" s="5">
-        <v>45976</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="K2" s="9">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4</v>
-      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4">
-        <v>7</v>
-      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4">
-        <v>14</v>
-      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4">
-        <v>7</v>
-      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4">
-        <v>10</v>
-      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
